--- a/data-sample/Reddit-DownloadStatus&images.xlsx
+++ b/data-sample/Reddit-DownloadStatus&images.xlsx
@@ -35,7 +35,7 @@
     <t>Folder Directory</t>
   </si>
   <si>
-    <t>Recent Days</t>
+    <t>Quantity</t>
   </si>
   <si>
     <t>r/TroChuyenLinhTinh</t>
@@ -988,7 +988,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D3 D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
